--- a/KodaVinnsla/Maelingar/Hitamælingar_með_viftu.xlsx
+++ b/KodaVinnsla/Maelingar/Hitamælingar_með_viftu.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rúnar U\Documents\Skóli\Tölvunarfræði\Örtölvu- og mælitækni\Hópverkefni - Hönnun\H-nnunarverkefni-rt-lvu-og-m-lit-kni-2020\KodaVinnsla\Mælingar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rúnar U\Documents\Skóli\Tölvunarfræði\Örtölvu- og mælitækni\Hópverkefni - Hönnun\H-nnunarverkefni-rt-lvu-og-m-lit-kni-2020\KodaVinnsla\Maelingar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D57A793-F844-47E1-B973-A1B82A997A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D43FC6-B79D-45C0-909D-27D0FB2D5F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>tími</t>
   </si>
@@ -40,6 +49,24 @@
   </si>
   <si>
     <t xml:space="preserve"> heater_on</t>
+  </si>
+  <si>
+    <t>Tími þegar kveikt er á viftu með ákveðið duty cycle</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>Hámarkshitastig (°C):</t>
+  </si>
+  <si>
+    <t>Lágmarkshitastig (°C):</t>
+  </si>
+  <si>
+    <t>jafnvægishitastig</t>
   </si>
 </sst>
 </file>
@@ -92,6 +119,6533 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Jafnvægishitastigsmælingar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> á Raspi5</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$631</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="630"/>
+                <c:pt idx="0">
+                  <c:v>10.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.87</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.71</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.58</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.01</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.01</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.89</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.77</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.77</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47.64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>48.98</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49.98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>52.42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>54.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>57.18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>61.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>62.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>63.49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64.489999999999995</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85.08</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>86.08</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>87.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>88.48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>89.93</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>90.93</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>92.33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>93.33</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>94.77</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>95.78</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>97.21</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>98.21</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>99.65</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>100.65</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>102.08</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>103.08</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>104.52</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>105.52</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>106.95</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>107.95</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>109.39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>110.39</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>111.83</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>112.84</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>114.27</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>115.27</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>117.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>119.14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>120.14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>121.57</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>122.58</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>124.01</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>125.01</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>126.44</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>127.45</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>128.88</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>129.88999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>131.32</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>132.32</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>133.75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>134.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>136.19</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>137.19</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>138.62</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>139.62</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>141.06</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>142.06</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>143.49</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>144.49</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>145.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>146.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>150.76</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>151.76</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>153.18</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>154.18</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>155.62</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>156.62</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>175.05</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>176.05</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>177.48</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>178.48</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>179.91</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>180.92</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>182.35</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>183.35</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>184.79</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>185.79</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>189.66</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>190.66</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>192.09</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>193.09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>194.52</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>195.52</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>196.96</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>197.96</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>199.39</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>200.39</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>201.82</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>202.82</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>206.65</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>207.66</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>209.09</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>210.09</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>211.52</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>212.52</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>213.96</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>214.96</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>216.39</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>217.39</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>218.83</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>219.83</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>221.26</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>222.26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>223.7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>224.7</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>226.12</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>227.13</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>230.98</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>231.98</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>233.31</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>234.31</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>235.74</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>236.74</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>238.17</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>239.17</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>240.61</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>241.61</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>243.04</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>244.04</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>247.9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>248.9</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>250.33</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>251.33</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>252.78</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>253.78</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>255.22</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>256.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>257.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>258.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>260.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>261.08999999999997</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>262.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>263.52999999999997</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>264.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>265.97000000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>267.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>268.41000000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>269.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>270.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>277.02</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>278.02</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>279.45</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>280.45</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>281.89</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>282.89</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>284.32</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>285.32</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>286.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>287.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>327.93</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>328.93</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>347.35</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>348.35</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>364.34</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>365.34</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>381.3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>382.31</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>383.74</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>384.74</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>386.17</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>387.17</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>388.6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>389.6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>391.05</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>392.05</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>393.48</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>394.49</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>395.92</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>396.92</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>398.35</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>399.35</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>400.78</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>401.78</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>403.12</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>404.12</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>405.56</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>406.56</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>407.99</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>408.99</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>410.43</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>411.43</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>412.85</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>413.85</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>415.28</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>416.29</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>417.72</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>418.72</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>420.16</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>421.16</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>422.58</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>423.58</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>425.01</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>426.01</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>427.44</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>428.44</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>429.87</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>430.87</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>432.3</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>433.3</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>434.73</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>435.73</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>437.17</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>438.17</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>442.03</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>443.03</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>444.46</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>445.47</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>446.9</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>447.9</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>449.33</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>450.33</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>451.76</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>452.76</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>454.19</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>455.19</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>456.63</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>457.63</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>458.96</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>459.96</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>461.41</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>462.41</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>463.86</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>464.86</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>466.29</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>467.29</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>468.72</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>469.72</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>471.15</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>472.15</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>473.57</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>474.57</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>475.94</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>476.94</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>478.38</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>479.39</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>480.83</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>481.83</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>483.26</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>484.26</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>485.7</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>486.7</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>488.13</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>489.13</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>490.57</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>491.57</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>493.01</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>494.01</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>495.45</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>496.45</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>500.23</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>501.23</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>502.67</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>503.67</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>507.53</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>508.53</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>509.97</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>510.97</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>512.29</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>513.29</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>534.14</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>535.15</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>536.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>537.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>539.02</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>540.02</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>541.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>542.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>543.89</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>544.89</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>546.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>547.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>548.75</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>549.75</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>551.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>552.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>553.62</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>554.62</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>556.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>557.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>558.49</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>559.49</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>560.92999999999995</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>561.92999999999995</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>565.79</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>566.79</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>568.22</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>569.22</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>570.66</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>571.66</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>573.09</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>574.09</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>575.53</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>576.53</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>577.96</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>578.97</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>580.4</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>581.4</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>582.72</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>583.72</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>585.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>586.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>590.04</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>591.04</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>592.47</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>593.47</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>594.84</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>595.84</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>597.23</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>598.23</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>599.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>600.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>602.1</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>603.1</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>604.54</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>605.54</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>606.99</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>607.99</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>616.71</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>617.72</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>619.15</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>620.15</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>621.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>622.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>638.57000000000005</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>639.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>641.01</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>642.01</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>665.25</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>666.25</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>670.11</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>671.11</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>674.98</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>675.99</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>677.42</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>678.42</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>679.85</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>680.85</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>687.07</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>688.07</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>691.88</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>692.88</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>706.46</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>707.46</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>708.89</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>709.89</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>716.15</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>717.16</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>721.02</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>722.02</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>723.45</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>724.46</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>725.89</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>726.89</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>728.29</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>729.29</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>742.86</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>743.86</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>745.22</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>746.22</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>747.67</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>748.67</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>749.98</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>750.98</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>752.38</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>753.38</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>754.71</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>755.71</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>810.39</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>811.39</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>822.56</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>823.56</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>866.28</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>867.28</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>890.3</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>891.31</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>897.6</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>898.6</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>900.03</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>901.04</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>902.47</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>903.47</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>904.9</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>905.9</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>917.09</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>918.09</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>921.95</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>922.96</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>924.39</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>925.39</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>926.82</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>927.82</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>929.26</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>930.26</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>931.69</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>932.69</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>934.12</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>935.12</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>936.55</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>937.55</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>939</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>941.37</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>942.37</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>946.26</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>947.26</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>948.61</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>949.61</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>951.06</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>952.06</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>953.5</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>954.5</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>955.91</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>956.91</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>958.35</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>959.35</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>960.72</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>961.72</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>963.15</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>964.15</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>965.59</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>966.59</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>969.01</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>970.45</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>971.46</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>972.89</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>973.89</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>975.33</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>976.33</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>977.71</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>978.71</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>980.15</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>981.15</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>982.58</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>983.58</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>985.02</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>986.02</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>987.45</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>988.46</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>989.89</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>990.89</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>992.32</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>993.32</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>997.07</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>998.07</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>999.5</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>1000.5</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>1001.93</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>1002.94</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>1006.8</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>1007.8</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>1035.93</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>1036.93</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>1038.25</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>1039.26</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>1040.7</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>1041.7</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>1043.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>1044.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>1045.55</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>1046.56</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>1047.99</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>1048.99</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>1050.43</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>1051.43</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>1052.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>1053.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>1055.29</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>1056.29</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>1060.1600000000001</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>1061.1600000000001</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>1062.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>1063.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>1065.03</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>1066.03</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>1067.46</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>1068.46</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>1069.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>1070.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>1072.32</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>1073.33</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>1074.76</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>1075.76</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>1077.19</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>1078.19</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>1079.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>1080.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>1082.02</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>1083.02</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>1084.47</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>1085.48</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>1086.9100000000001</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>1087.9100000000001</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>1089.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>1090.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>1091.77</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>1092.77</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>1094.21</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>1095.21</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>1096.54</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>1097.54</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>1101.4100000000001</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>1102.42</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>1103.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>1104.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>1113.56</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>1114.56</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>1115.99</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>1116.99</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>1118.42</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>1119.42</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>1120.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>1121.8499999999999</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>1123.29</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>1124.29</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>1125.72</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>1126.72</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>1130.58</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>1131.58</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>1135.44</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>1136.44</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>1137.8599999999999</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>1138.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>1140.29</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>1141.29</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>1142.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>1143.5899999999999</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>1145.02</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>1146.02</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>1147.45</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>1148.45</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>1149.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>1150.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>1152.32</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>1153.32</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>1154.75</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>1155.75</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>1157.19</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>1158.19</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>1159.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>1160.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>1162.06</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>1163.07</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>1164.5</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>1165.51</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>1166.94</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>1167.94</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>1169.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>1170.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>1171.81</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>1172.81</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>1174.24</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>1175.24</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>1176.67</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>1177.67</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>1179</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>1180</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>1181.3499999999999</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>1182.3499999999999</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>1183.8</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>1184.8</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>1186.23</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>1187.23</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>1188.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>1189.67</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>1191.02</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>1192.02</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>1193.45</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>1194.45</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>1195.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>1196.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>1198.31</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>1199.31</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>1200.74</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>1201.74</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>1203.17</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>1204.17</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>1205.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>1206.6099999999999</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>1217.76</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>1218.77</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>1227.48</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>1228.48</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>1229.9100000000001</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>1230.9100000000001</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>1232.3499999999999</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>1233.3499999999999</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>1234.78</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>1235.78</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>1237.21</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>1238.21</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>1239.6500000000001</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>1240.6500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$631</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="630"/>
+                <c:pt idx="0">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46.1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>46.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>49.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>58.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>59.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60.7</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>60.9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>61.4</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>62.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>62.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>62.8</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>64.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>65.3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>65.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>66.3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>67.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>67.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>68.7</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>70.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>75.8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>74.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>72.8</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>71.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>70.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>69.8</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>68.8</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>68.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>67.7</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>65.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>64.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>60.5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>56.9</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>56.9</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>53.5</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>37.1</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>36.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>35.9</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>34.6</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>32.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>32.4</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>31.3</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>27.1</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>26.4</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>24.8</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>24.2</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>22.6</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>21.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>dc 0</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>393.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>393.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dc 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$29:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>478.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>478.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>dc 20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$30:$I$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>692.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>692.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>dc 30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$31:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>930.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>930.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>dc 40</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$32:$I$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>961.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>961.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>dc 50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>993.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>993.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>dc 60</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$34:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1050.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1050.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>dc 70</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$35:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1090.3399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1090.3399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>dc 80</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$36:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1126.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1126.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>dc 90</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$37:$I$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1160.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1160.6300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>dc 100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$38:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1192.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1192.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$29:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-407D-4988-BEB3-972AC3A98B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261720160"/>
+        <c:axId val="263642416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261720160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1250"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Tími (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263642416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="263642416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Hitastig (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261720160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Jafnvægishitastig sem fall af duty cycle</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$28:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$28:$J$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>67.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.87</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.759999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0ECA-4263-BAA9-7873B8702CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435417088"/>
+        <c:axId val="251843536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435417088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> cycle</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251843536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="251843536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Hitastig (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435417088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E362301-4C62-4599-897A-618FFF1BD9B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3454FD4-BC22-4CA4-9B97-34D198A9F803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +6911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E631"/>
+  <dimension ref="A1:N631"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +7198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.14</v>
       </c>
@@ -661,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>29.58</v>
       </c>
@@ -678,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30.58</v>
       </c>
@@ -695,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>32.01</v>
       </c>
@@ -712,7 +7266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>33.01</v>
       </c>
@@ -729,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>34.450000000000003</v>
       </c>
@@ -746,7 +7300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>35.450000000000003</v>
       </c>
@@ -763,7 +7317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36.89</v>
       </c>
@@ -780,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>37.89</v>
       </c>
@@ -797,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39.32</v>
       </c>
@@ -813,8 +7367,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>40.33</v>
       </c>
@@ -830,8 +7387,17 @@
       <c r="E27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>41.77</v>
       </c>
@@ -847,8 +7413,23 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,G28)</f>
+        <v>393.48</v>
+      </c>
+      <c r="I28">
+        <f>H28</f>
+        <v>393.48</v>
+      </c>
+      <c r="J28">
+        <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,G28)</f>
+        <v>67.800000000000011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>42.77</v>
       </c>
@@ -864,8 +7445,30 @@
       <c r="E29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <f>_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,G29)</f>
+        <v>478.38</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ref="I29:I38" si="0">H29</f>
+        <v>478.38</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J38" si="1">_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,G29)</f>
+        <v>28.35</v>
+      </c>
+      <c r="L29" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <f>CEILING(MAX($B$2:$B$631),10)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>44.2</v>
       </c>
@@ -881,8 +7484,29 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ref="H30:H38" si="2">_xlfn.MINIFS($A$2:$A$631,$C$2:$C$631,1,$D$2:$D$631,G30)</f>
+        <v>692.88</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>692.88</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>23.209999999999997</v>
+      </c>
+      <c r="L30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>45.2</v>
       </c>
@@ -898,8 +7522,23 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>930.26</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>930.26</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>46.64</v>
       </c>
@@ -915,8 +7554,23 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>40</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>961.72</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>961.72</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>24.310000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>47.64</v>
       </c>
@@ -932,8 +7586,23 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>50</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>993.32</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>993.32</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>23.699999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>48.98</v>
       </c>
@@ -949,8 +7618,23 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>60</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>1050.43</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1050.43</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>49.98</v>
       </c>
@@ -966,8 +7650,23 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35">
+        <v>70</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1090.3399999999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>1090.3399999999999</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>23.649999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>51.42</v>
       </c>
@@ -983,8 +7682,23 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>80</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>1126.72</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>1126.72</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>52.42</v>
       </c>
@@ -1000,8 +7714,23 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>90</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>1160.6300000000001</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>1160.6300000000001</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>23.219999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>53.75</v>
       </c>
@@ -1017,8 +7746,23 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>1192.02</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1192.02</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>21.759999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>54.75</v>
       </c>
@@ -1035,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>56.18</v>
       </c>
@@ -1052,7 +7796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>57.18</v>
       </c>
@@ -1069,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>58.62</v>
       </c>
@@ -1086,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>59.62</v>
       </c>
@@ -1103,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>61.06</v>
       </c>
@@ -1120,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>62.06</v>
       </c>
@@ -1137,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>63.49</v>
       </c>
@@ -1154,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>64.489999999999995</v>
       </c>
@@ -1171,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>85.08</v>
       </c>
@@ -3636,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>365.34</v>
       </c>
@@ -3653,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>381.3</v>
       </c>
@@ -3670,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>382.31</v>
       </c>
@@ -3687,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>383.74</v>
       </c>
@@ -3704,7 +10448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>384.74</v>
       </c>
@@ -3721,7 +10465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>386.17</v>
       </c>
@@ -3738,7 +10482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>387.17</v>
       </c>
@@ -3755,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>388.6</v>
       </c>
@@ -3772,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>389.6</v>
       </c>
@@ -3789,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>391.05</v>
       </c>
@@ -3806,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>392.05</v>
       </c>
@@ -3822,8 +10566,12 @@
       <c r="E203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203">
+        <f>AVERAGE(B194:B203)</f>
+        <v>75.799999999999983</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>393.48</v>
       </c>
@@ -3840,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>394.49</v>
       </c>
@@ -3857,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>395.92</v>
       </c>
@@ -3874,7 +10622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>396.92</v>
       </c>
@@ -3891,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>398.35</v>
       </c>
@@ -4724,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>459.96</v>
       </c>
@@ -4741,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>461.41</v>
       </c>
@@ -4758,7 +11506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>462.41</v>
       </c>
@@ -4775,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>463.86</v>
       </c>
@@ -4792,7 +11540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>464.86</v>
       </c>
@@ -4809,7 +11557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>466.29</v>
       </c>
@@ -4826,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>467.29</v>
       </c>
@@ -4843,7 +11591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>468.72</v>
       </c>
@@ -4860,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>469.72</v>
       </c>
@@ -4877,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>471.15</v>
       </c>
@@ -4894,7 +11642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>472.15</v>
       </c>
@@ -4911,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>473.57</v>
       </c>
@@ -4928,7 +11676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>474.57</v>
       </c>
@@ -4945,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>475.94</v>
       </c>
@@ -4962,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>476.94</v>
       </c>
@@ -4978,8 +11726,12 @@
       <c r="E271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271">
+        <f>AVERAGE(B262:B271)</f>
+        <v>67.800000000000011</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>478.38</v>
       </c>
@@ -6628,7 +13380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>671.11</v>
       </c>
@@ -6645,7 +13397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>674.98</v>
       </c>
@@ -6662,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>675.99</v>
       </c>
@@ -6679,7 +13431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>677.42</v>
       </c>
@@ -6696,7 +13448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>678.42</v>
       </c>
@@ -6713,7 +13465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>679.85</v>
       </c>
@@ -6730,7 +13482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>680.85</v>
       </c>
@@ -6747,7 +13499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>687.07</v>
       </c>
@@ -6764,7 +13516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>688.07</v>
       </c>
@@ -6781,7 +13533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>691.88</v>
       </c>
@@ -6797,8 +13549,12 @@
       <c r="E378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F378">
+        <f>AVERAGE(B369:B378)</f>
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>692.88</v>
       </c>
@@ -6815,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>706.46</v>
       </c>
@@ -6832,7 +13588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>707.46</v>
       </c>
@@ -6849,7 +13605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>708.89</v>
       </c>
@@ -6866,7 +13622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>709.89</v>
       </c>
@@ -6883,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>716.15</v>
       </c>
@@ -7444,7 +14200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>901.04</v>
       </c>
@@ -7461,7 +14217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>902.47</v>
       </c>
@@ -7478,7 +14234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>903.47</v>
       </c>
@@ -7495,7 +14251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>904.9</v>
       </c>
@@ -7512,7 +14268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>905.9</v>
       </c>
@@ -7529,7 +14285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>917.09</v>
       </c>
@@ -7546,7 +14302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>918.09</v>
       </c>
@@ -7563,7 +14319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>921.95</v>
       </c>
@@ -7580,7 +14336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>922.96</v>
       </c>
@@ -7597,7 +14353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>924.39</v>
       </c>
@@ -7614,7 +14370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>925.39</v>
       </c>
@@ -7631,7 +14387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>926.82</v>
       </c>
@@ -7648,7 +14404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>927.82</v>
       </c>
@@ -7665,7 +14421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>929.26</v>
       </c>
@@ -7681,8 +14437,12 @@
       <c r="E430">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F430">
+        <f>AVERAGE(B421:B430)</f>
+        <v>23.209999999999997</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>930.26</v>
       </c>
@@ -7699,7 +14459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>931.69</v>
       </c>
@@ -7988,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>954.5</v>
       </c>
@@ -8005,7 +14765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>955.91</v>
       </c>
@@ -8022,7 +14782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>956.91</v>
       </c>
@@ -8039,7 +14799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>958.35</v>
       </c>
@@ -8056,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>959.35</v>
       </c>
@@ -8073,7 +14833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>960.72</v>
       </c>
@@ -8089,8 +14849,12 @@
       <c r="E454">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F454">
+        <f>AVERAGE(B445:B454)</f>
+        <v>23.86</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>961.72</v>
       </c>
@@ -8107,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>963.15</v>
       </c>
@@ -8124,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>964.15</v>
       </c>
@@ -8141,7 +14905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>965.59</v>
       </c>
@@ -8158,7 +14922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>966.59</v>
       </c>
@@ -8175,7 +14939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>968</v>
       </c>
@@ -8192,7 +14956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>969.01</v>
       </c>
@@ -8209,7 +14973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>970.45</v>
       </c>
@@ -8226,7 +14990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>971.46</v>
       </c>
@@ -8243,7 +15007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>972.89</v>
       </c>
@@ -8260,7 +15024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>973.89</v>
       </c>
@@ -8277,7 +15041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>975.33</v>
       </c>
@@ -8294,7 +15058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>976.33</v>
       </c>
@@ -8311,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>977.71</v>
       </c>
@@ -8328,7 +15092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>978.71</v>
       </c>
@@ -8345,7 +15109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>980.15</v>
       </c>
@@ -8362,7 +15126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>981.15</v>
       </c>
@@ -8379,7 +15143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>982.58</v>
       </c>
@@ -8396,7 +15160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>983.58</v>
       </c>
@@ -8413,7 +15177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>985.02</v>
       </c>
@@ -8430,7 +15194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>986.02</v>
       </c>
@@ -8447,7 +15211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>987.45</v>
       </c>
@@ -8464,7 +15228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>988.46</v>
       </c>
@@ -8481,7 +15245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>989.89</v>
       </c>
@@ -8498,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>990.89</v>
       </c>
@@ -8515,7 +15279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>992.32</v>
       </c>
@@ -8530,6 +15294,10 @@
       </c>
       <c r="E480">
         <v>1</v>
+      </c>
+      <c r="F480">
+        <f>AVERAGE(B471:B480)</f>
+        <v>24.310000000000002</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -8804,7 +15572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1044.1400000000001</v>
       </c>
@@ -8821,7 +15589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1045.55</v>
       </c>
@@ -8838,7 +15606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>1046.56</v>
       </c>
@@ -8855,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1047.99</v>
       </c>
@@ -8872,7 +15640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1048.99</v>
       </c>
@@ -8888,8 +15656,12 @@
       <c r="E501">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F501">
+        <f>AVERAGE(B492:B501)</f>
+        <v>23.699999999999996</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1050.43</v>
       </c>
@@ -8906,7 +15678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1051.43</v>
       </c>
@@ -8923,7 +15695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1052.8599999999999</v>
       </c>
@@ -8940,7 +15712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>1053.8599999999999</v>
       </c>
@@ -8957,7 +15729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>1055.29</v>
       </c>
@@ -8974,7 +15746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>1056.29</v>
       </c>
@@ -8991,7 +15763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1060.1600000000001</v>
       </c>
@@ -9008,7 +15780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1061.1600000000001</v>
       </c>
@@ -9025,7 +15797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>1062.5899999999999</v>
       </c>
@@ -9042,7 +15814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1063.5899999999999</v>
       </c>
@@ -9059,7 +15831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1065.03</v>
       </c>
@@ -9348,7 +16120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1085.48</v>
       </c>
@@ -9365,7 +16137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>1086.9100000000001</v>
       </c>
@@ -9382,7 +16154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>1087.9100000000001</v>
       </c>
@@ -9399,7 +16171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1089.3399999999999</v>
       </c>
@@ -9415,8 +16187,12 @@
       <c r="E532">
         <v>1</v>
       </c>
-    </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F532">
+        <f>AVERAGE(B523:B532)</f>
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>1090.3399999999999</v>
       </c>
@@ -9433,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>1091.77</v>
       </c>
@@ -9450,7 +16226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1092.77</v>
       </c>
@@ -9467,7 +16243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>1094.21</v>
       </c>
@@ -9484,7 +16260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1095.21</v>
       </c>
@@ -9501,7 +16277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1096.54</v>
       </c>
@@ -9518,7 +16294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1097.54</v>
       </c>
@@ -9535,7 +16311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>1101.4100000000001</v>
       </c>
@@ -9552,7 +16328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>1102.42</v>
       </c>
@@ -9569,7 +16345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1103.8499999999999</v>
       </c>
@@ -9586,7 +16362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>1104.8499999999999</v>
       </c>
@@ -9603,7 +16379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>1113.56</v>
       </c>
@@ -9620,7 +16396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1114.56</v>
       </c>
@@ -9637,7 +16413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1115.99</v>
       </c>
@@ -9654,7 +16430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>1116.99</v>
       </c>
@@ -9671,7 +16447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>1118.42</v>
       </c>
@@ -9688,7 +16464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>1119.42</v>
       </c>
@@ -9705,7 +16481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>1120.8499999999999</v>
       </c>
@@ -9722,7 +16498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>1121.8499999999999</v>
       </c>
@@ -9739,7 +16515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>1123.29</v>
       </c>
@@ -9756,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>1124.29</v>
       </c>
@@ -9773,7 +16549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>1125.72</v>
       </c>
@@ -9789,8 +16565,12 @@
       <c r="E554">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F554">
+        <f>AVERAGE(B545:B554)</f>
+        <v>23.649999999999995</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>1126.72</v>
       </c>
@@ -9807,7 +16587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>1130.58</v>
       </c>
@@ -9824,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>1131.58</v>
       </c>
@@ -9841,7 +16621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>1135.44</v>
       </c>
@@ -9858,7 +16638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>1136.44</v>
       </c>
@@ -9875,7 +16655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>1137.8599999999999</v>
       </c>
@@ -10164,7 +16944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>1158.19</v>
       </c>
@@ -10181,7 +16961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>1159.6300000000001</v>
       </c>
@@ -10197,8 +16977,12 @@
       <c r="E578">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F578">
+        <f>AVERAGE(B569:B578)</f>
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>1160.6300000000001</v>
       </c>
@@ -10215,7 +16999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>1162.06</v>
       </c>
@@ -10232,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>1163.07</v>
       </c>
@@ -10249,7 +17033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>1164.5</v>
       </c>
@@ -10266,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>1165.51</v>
       </c>
@@ -10283,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>1166.94</v>
       </c>
@@ -10300,7 +17084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>1167.94</v>
       </c>
@@ -10317,7 +17101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>1169.3699999999999</v>
       </c>
@@ -10334,7 +17118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>1170.3699999999999</v>
       </c>
@@ -10351,7 +17135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>1171.81</v>
       </c>
@@ -10368,7 +17152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>1172.81</v>
       </c>
@@ -10385,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>1174.24</v>
       </c>
@@ -10402,7 +17186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>1175.24</v>
       </c>
@@ -10419,7 +17203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>1176.67</v>
       </c>
@@ -10436,7 +17220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>1177.67</v>
       </c>
@@ -10453,7 +17237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>1179</v>
       </c>
@@ -10470,7 +17254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>1180</v>
       </c>
@@ -10487,7 +17271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>1181.3499999999999</v>
       </c>
@@ -10504,7 +17288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>1182.3499999999999</v>
       </c>
@@ -10521,7 +17305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>1183.8</v>
       </c>
@@ -10538,7 +17322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>1184.8</v>
       </c>
@@ -10555,7 +17339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>1186.23</v>
       </c>
@@ -10572,7 +17356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>1187.23</v>
       </c>
@@ -10589,7 +17373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>1188.6600000000001</v>
       </c>
@@ -10606,7 +17390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>1189.67</v>
       </c>
@@ -10623,7 +17407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>1191.02</v>
       </c>
@@ -10639,8 +17423,12 @@
       <c r="E604">
         <v>1</v>
       </c>
-    </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F604">
+        <f>AVERAGE(B595:B604)</f>
+        <v>23.219999999999995</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>1192.02</v>
       </c>
@@ -10657,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>1193.45</v>
       </c>
@@ -10674,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>1194.45</v>
       </c>
@@ -10691,7 +17479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>1195.8800000000001</v>
       </c>
@@ -10980,7 +17768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>1233.3499999999999</v>
       </c>
@@ -10997,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>1234.78</v>
       </c>
@@ -11014,7 +17802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>1235.78</v>
       </c>
@@ -11031,7 +17819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>1237.21</v>
       </c>
@@ -11048,7 +17836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>1238.21</v>
       </c>
@@ -11065,7 +17853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>1239.6500000000001</v>
       </c>
@@ -11082,7 +17870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>1240.6500000000001</v>
       </c>
@@ -11098,8 +17886,13 @@
       <c r="E631">
         <v>1</v>
       </c>
+      <c r="F631">
+        <f>AVERAGE(B622:B631)</f>
+        <v>21.759999999999994</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/KodaVinnsla/Maelingar/Hitamælingar_með_viftu.xlsx
+++ b/KodaVinnsla/Maelingar/Hitamælingar_með_viftu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rúnar U\Documents\Skóli\Tölvunarfræði\Örtölvu- og mælitækni\Hópverkefni - Hönnun\H-nnunarverkefni-rt-lvu-og-m-lit-kni-2020\KodaVinnsla\Maelingar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D43FC6-B79D-45C0-909D-27D0FB2D5F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92A33D8-F4A2-4E35-BB08-530095A54164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>tími</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>jafnvægishitastig</t>
+  </si>
+  <si>
+    <t>Jafnvhitastig án viftu:</t>
   </si>
 </sst>
 </file>
@@ -5036,34 +5039,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$28:$G$38</c:f>
@@ -5459,6 +5434,542 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Jafnvægishitastig sem fall af duty cycle á línulegu sviði</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="10"/>
+            <c:backward val="10"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0020833333333333E-2"/>
+                  <c:y val="-0.40268675055323966"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$29:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$29:$J$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>28.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.87</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.219999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-043A-49F7-88EA-3BDBCB32664F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="435417088"/>
+        <c:axId val="251843536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="435417088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duty</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> cycle</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="251843536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="251843536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Hitastig (°C)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435417088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5500,6 +6011,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6571,6 +7122,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6640,6 +7707,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CEBD7E4-4810-4D08-99B7-9514B4CA5FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6913,8 +8018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N631"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7537,6 +8642,13 @@
         <f t="shared" si="1"/>
         <v>23.86</v>
       </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31">
+        <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,0,$D$2:$D$631,0)</f>
+        <v>75.799999999999983</v>
+      </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">

--- a/KodaVinnsla/Maelingar/Hitamælingar_með_viftu.xlsx
+++ b/KodaVinnsla/Maelingar/Hitamælingar_með_viftu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rúnar U\Documents\Skóli\Tölvunarfræði\Örtölvu- og mælitækni\Hópverkefni - Hönnun\H-nnunarverkefni-rt-lvu-og-m-lit-kni-2020\KodaVinnsla\Maelingar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92A33D8-F4A2-4E35-BB08-530095A54164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE19B5-E250-48D7-AF9E-995F96DAD7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>tími</t>
   </si>
@@ -70,6 +92,18 @@
   </si>
   <si>
     <t>Jafnvhitastig án viftu:</t>
+  </si>
+  <si>
+    <t>fan_on</t>
+  </si>
+  <si>
+    <t>jafnv. Hiti</t>
+  </si>
+  <si>
+    <t>tímastuðull</t>
+  </si>
+  <si>
+    <t>63% hitabr.</t>
   </si>
 </sst>
 </file>
@@ -8016,10 +8050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N631"/>
+  <dimension ref="A1:Y631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R66" sqref="R66"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8303,7 +8337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.14</v>
       </c>
@@ -8320,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>29.58</v>
       </c>
@@ -8337,7 +8371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30.58</v>
       </c>
@@ -8354,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>32.01</v>
       </c>
@@ -8371,7 +8405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>33.01</v>
       </c>
@@ -8388,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>34.450000000000003</v>
       </c>
@@ -8405,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>35.450000000000003</v>
       </c>
@@ -8422,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36.89</v>
       </c>
@@ -8439,7 +8473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>37.89</v>
       </c>
@@ -8456,7 +8490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>39.32</v>
       </c>
@@ -8476,7 +8510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>40.33</v>
       </c>
@@ -8501,8 +8535,26 @@
       <c r="J27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" t="s">
+        <v>7</v>
+      </c>
+      <c r="V27" t="s">
+        <v>6</v>
+      </c>
+      <c r="W27" t="s">
+        <v>13</v>
+      </c>
+      <c r="X27" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>41.77</v>
       </c>
@@ -8533,8 +8585,22 @@
         <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,1,$D$2:$D$631,G28)</f>
         <v>67.800000000000011</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28" cm="1">
+        <f t="array" ref="V28:V38">H28:H38</f>
+        <v>393.48</v>
+      </c>
+      <c r="W28">
+        <f>N31</f>
+        <v>75.799999999999983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>42.77</v>
       </c>
@@ -8572,8 +8638,30 @@
         <f>CEILING(MAX($B$2:$B$631),10)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>478.38</v>
+      </c>
+      <c r="W29">
+        <f>J28</f>
+        <v>67.800000000000011</v>
+      </c>
+      <c r="X29">
+        <f>W28-0.63*(W28-W29)</f>
+        <v>70.760000000000005</v>
+      </c>
+      <c r="Y29">
+        <f>_xlfn.MINIFS($A$2:$A$631,$B$2:$B$631, "&lt;"&amp; W29, $C$2:$C$631,T29,$D$2:$D$631,U29)-V28</f>
+        <v>80.089999999999975</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>44.2</v>
       </c>
@@ -8610,8 +8698,30 @@
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" ref="U30:U38" si="3">G29</f>
+        <v>10</v>
+      </c>
+      <c r="V30">
+        <v>692.88</v>
+      </c>
+      <c r="W30">
+        <f t="shared" ref="W30:W39" si="4">J29</f>
+        <v>28.35</v>
+      </c>
+      <c r="X30">
+        <f t="shared" ref="X30:X39" si="5">W29-0.63*(W29-W30)</f>
+        <v>42.9465</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" ref="Y30:Y39" si="6">_xlfn.MINIFS($A$2:$A$631,$B$2:$B$631, "&lt;"&amp; W30, $C$2:$C$631,T30,$D$2:$D$631,U30)-V29</f>
+        <v>201.47000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>45.2</v>
       </c>
@@ -8649,8 +8759,30 @@
         <f>_xlfn.MAXIFS($F$2:$F$631,$C$2:$C$631,0,$D$2:$D$631,0)</f>
         <v>75.799999999999983</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="V31">
+        <v>930.26</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="4"/>
+        <v>23.209999999999997</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="5"/>
+        <v>25.111799999999999</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="6"/>
+        <v>224.21000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>46.64</v>
       </c>
@@ -8681,8 +8813,30 @@
         <f t="shared" si="1"/>
         <v>24.310000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="V32">
+        <v>961.72</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="4"/>
+        <v>23.86</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="5"/>
+        <v>23.619499999999999</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>47.64</v>
       </c>
@@ -8713,8 +8867,30 @@
         <f t="shared" si="1"/>
         <v>23.699999999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="V33">
+        <v>993.32</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="4"/>
+        <v>24.310000000000002</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="5"/>
+        <v>24.1435</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>48.98</v>
       </c>
@@ -8745,8 +8921,30 @@
         <f t="shared" si="1"/>
         <v>22.61</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="V34">
+        <v>1050.43</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="4"/>
+        <v>23.699999999999996</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="5"/>
+        <v>23.925699999999999</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="6"/>
+        <v>54.669999999999959</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>49.98</v>
       </c>
@@ -8777,8 +8975,30 @@
         <f t="shared" si="1"/>
         <v>23.649999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="V35">
+        <v>1090.3399999999999</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="4"/>
+        <v>22.61</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="5"/>
+        <v>23.013299999999997</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="6"/>
+        <v>31.589999999999918</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>51.42</v>
       </c>
@@ -8809,8 +9029,30 @@
         <f t="shared" si="1"/>
         <v>22.87</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="V36">
+        <v>1126.72</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="4"/>
+        <v>23.649999999999995</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="5"/>
+        <v>23.265199999999997</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>52.42</v>
       </c>
@@ -8841,8 +9083,30 @@
         <f t="shared" si="1"/>
         <v>23.219999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="V37">
+        <v>1160.6300000000001</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="4"/>
+        <v>22.87</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="5"/>
+        <v>23.1586</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="6"/>
+        <v>28.029999999999973</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>53.75</v>
       </c>
@@ -8873,8 +9137,30 @@
         <f t="shared" si="1"/>
         <v>21.759999999999994</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="V38">
+        <v>1192.02</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="4"/>
+        <v>23.219999999999995</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="5"/>
+        <v>23.090499999999999</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>54.75</v>
       </c>
@@ -8890,8 +9176,31 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <f>G38</f>
+        <v>100</v>
+      </c>
+      <c r="V39">
+        <f>MAX($A$2:$A$631)</f>
+        <v>1240.6500000000001</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="4"/>
+        <v>21.759999999999994</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="5"/>
+        <v>22.300199999999993</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="6"/>
+        <v>42.759999999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>56.18</v>
       </c>
@@ -8908,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>57.18</v>
       </c>
@@ -8925,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>58.62</v>
       </c>
@@ -8942,7 +9251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>59.62</v>
       </c>
@@ -8959,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>61.06</v>
       </c>
@@ -8976,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>62.06</v>
       </c>
@@ -8993,7 +9302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>63.49</v>
       </c>
@@ -9010,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>64.489999999999995</v>
       </c>
@@ -9027,7 +9336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>85.08</v>
       </c>

--- a/KodaVinnsla/Maelingar/Hitamælingar_með_viftu.xlsx
+++ b/KodaVinnsla/Maelingar/Hitamælingar_með_viftu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rúnar U\Documents\Skóli\Tölvunarfræði\Örtölvu- og mælitækni\Hópverkefni - Hönnun\H-nnunarverkefni-rt-lvu-og-m-lit-kni-2020\KodaVinnsla\Maelingar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FE19B5-E250-48D7-AF9E-995F96DAD7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81AE0E3-5027-42A9-B707-DF41628BA328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8052,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
